--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_4.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_0</t>
+          <t>model_9_4_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7156421102159749</v>
+        <v>0.2112709723341609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9105233218579947</v>
+        <v>-1.270970585416494</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9711922447049012</v>
+        <v>-1.480401527222878</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9408846471570902</v>
+        <v>-1.349045258114328</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3147003650665283</v>
+        <v>0.8728905916213989</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1621750593185425</v>
+        <v>2.136618852615356</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0463130995631218</v>
+        <v>2.860383749008179</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1076515093445778</v>
+        <v>2.477213859558105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_1</t>
+          <t>model_9_4_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7238854689282515</v>
+        <v>0.2616871498882661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9011674025841632</v>
+        <v>-1.196313221554341</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9705762251888985</v>
+        <v>-1.086603741683489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9356988876943578</v>
+        <v>-1.111133663315895</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3055774569511414</v>
+        <v>0.8170947432518005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1791325062513351</v>
+        <v>2.066378355026245</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0473034530878067</v>
+        <v>2.406258583068848</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1170949935913086</v>
+        <v>2.226321220397949</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_2</t>
+          <t>model_9_4_12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7316182847358017</v>
+        <v>0.2646761391190556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8943475600057355</v>
+        <v>-2.382229510258318</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9682939515594622</v>
+        <v>-0.5944832923852155</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9311569331584757</v>
+        <v>-1.41802081217306</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2970194816589355</v>
+        <v>0.8137868046760559</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1914933621883392</v>
+        <v>3.182135343551636</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05097257345914841</v>
+        <v>1.838748216629028</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1253660917282104</v>
+        <v>2.549952745437622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_3</t>
+          <t>model_9_4_13</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7393581112445029</v>
+        <v>0.2774840200016251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8894183482487311</v>
+        <v>-2.257340757991858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9661862745482853</v>
+        <v>-0.6360018472065014</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9276839272858722</v>
+        <v>-1.380401035811197</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2884537875652313</v>
+        <v>0.7996123433113098</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2004274725914001</v>
+        <v>3.064635038375854</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0543610043823719</v>
+        <v>1.886627197265625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1316905915737152</v>
+        <v>2.510280609130859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_4</t>
+          <t>model_9_4_14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.74696543667508</v>
+        <v>0.2867112208403876</v>
       </c>
       <c r="C6" t="n">
-        <v>0.885345235649361</v>
+        <v>-2.169912727645614</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9642816125369206</v>
+        <v>-0.665954933875883</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9247466987815112</v>
+        <v>-1.354517506240311</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2800347208976746</v>
+        <v>0.7894005179405212</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2078099399805069</v>
+        <v>2.98237943649292</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05742305517196655</v>
+        <v>1.921168923377991</v>
       </c>
       <c r="I6" t="n">
-        <v>0.137039378285408</v>
+        <v>2.48298454284668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_5</t>
+          <t>model_9_4_16</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7543619765762904</v>
+        <v>0.3154815794925628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.882058260294852</v>
+        <v>-1.971187127413387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9625861107466938</v>
+        <v>-0.6739542430528378</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9223101529285045</v>
+        <v>-1.264773335350963</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2718488872051239</v>
+        <v>0.7575601935386658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2137675285339355</v>
+        <v>2.795410394668579</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06014884635806084</v>
+        <v>1.930393576622009</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1414764374494553</v>
+        <v>2.388343811035156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_6</t>
+          <t>model_9_4_15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7613517422821771</v>
+        <v>0.3184152598807807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8789444739041523</v>
+        <v>-1.942190852363367</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9602077539328355</v>
+        <v>-0.6740503705522891</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9196814602316923</v>
+        <v>-1.251124988145825</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2641133368015289</v>
+        <v>0.7543134689331055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2194112092256546</v>
+        <v>2.768129587173462</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06397244334220886</v>
+        <v>1.930504560470581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1462634056806564</v>
+        <v>2.373950958251953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_7</t>
+          <t>model_9_4_11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7680097827543609</v>
+        <v>0.3233735469341812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8761711545758197</v>
+        <v>-2.088618753453285</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9575070288420082</v>
+        <v>-0.4507237700830002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9170979115098996</v>
+        <v>-1.205366007704</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2567448019981384</v>
+        <v>0.7488260269165039</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2244377881288528</v>
+        <v>2.90589451789856</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06831429153680801</v>
+        <v>1.6729656457901</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1509681642055511</v>
+        <v>2.325695037841797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_8</t>
+          <t>model_9_4_21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.774403144817846</v>
+        <v>0.3346819351570769</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8738344891542884</v>
+        <v>-1.90883458265419</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9547147642410625</v>
+        <v>-0.6282244328089379</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9147068035450228</v>
+        <v>-1.211792477566435</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2496692389249802</v>
+        <v>0.7363110780715942</v>
       </c>
       <c r="G10" t="n">
-        <v>0.228672981262207</v>
+        <v>2.736746549606323</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07280329614877701</v>
+        <v>1.877658367156982</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1553224474191666</v>
+        <v>2.332472324371338</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_9</t>
+          <t>model_9_4_20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7802663060326537</v>
+        <v>0.335445881839046</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8713984769847734</v>
+        <v>-1.897589045771548</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9510356086021692</v>
+        <v>-0.6300533993988133</v>
       </c>
       <c r="E11" t="n">
-        <v>0.911895067768508</v>
+        <v>-1.207421499451616</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2431804686784744</v>
+        <v>0.7354655861854553</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2330882251262665</v>
+        <v>2.726166486740112</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07871814072132111</v>
+        <v>1.879767417907715</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1604427397251129</v>
+        <v>2.327862739562988</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_10</t>
+          <t>model_9_4_19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7858052736678742</v>
+        <v>0.3356357858558744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8690357168672364</v>
+        <v>-1.893001178798407</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9468948045762233</v>
+        <v>-0.630754448310989</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9089296665510626</v>
+        <v>-1.205614355625152</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2370504438877106</v>
+        <v>0.7352553606033325</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2373706698417664</v>
+        <v>2.721850156784058</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08537514507770538</v>
+        <v>1.880575895309448</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1658428758382797</v>
+        <v>2.325957059860229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_11</t>
+          <t>model_9_4_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7909077926575045</v>
+        <v>0.3361591780354206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8667217010725348</v>
+        <v>-1.864737089268072</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9420369364636773</v>
+        <v>-0.6462473979726242</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9056920277292307</v>
+        <v>-1.200232699902365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2314034551382065</v>
+        <v>0.7346762418746948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2415648102760315</v>
+        <v>2.695258140563965</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09318495541810989</v>
+        <v>1.898442387580872</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1717387437820435</v>
+        <v>2.320281982421875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_12</t>
+          <t>model_9_4_22</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7957294330728679</v>
+        <v>0.3382844936628217</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8643381898559448</v>
+        <v>-1.875783251074439</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9371843240039257</v>
+        <v>-0.6346403570650616</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9024200196149583</v>
+        <v>-1.199484893069932</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2260673195123672</v>
+        <v>0.7323240637779236</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2458848655223846</v>
+        <v>2.705650806427002</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1009863093495369</v>
+        <v>1.885057210922241</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1776971966028214</v>
+        <v>2.319493055343628</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_13</t>
+          <t>model_9_4_17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7999878047611578</v>
+        <v>0.3436479123795986</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8617025617182792</v>
+        <v>-1.789972321721864</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9311874456315575</v>
+        <v>-0.6570393566774793</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8985396808021162</v>
+        <v>-1.170477512040379</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2213545739650726</v>
+        <v>0.7263883948326111</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2506619095802307</v>
+        <v>2.624916315078735</v>
       </c>
       <c r="H15" t="n">
-        <v>0.110627256333828</v>
+        <v>1.910887479782104</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1847634613513947</v>
+        <v>2.28890323638916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_14</t>
+          <t>model_9_4_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.803736904929008</v>
+        <v>0.3464886290860391</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8589720478808456</v>
+        <v>-1.850234332281612</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9241816233811724</v>
+        <v>-0.6067562045531472</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8941904346424611</v>
+        <v>-1.173066241008569</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2172054201364517</v>
+        <v>0.7232445478439331</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2556109428405762</v>
+        <v>2.681613206863403</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1218902394175529</v>
+        <v>1.852901339530945</v>
       </c>
       <c r="I16" t="n">
-        <v>0.192683607339859</v>
+        <v>2.291633129119873</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_15</t>
+          <t>model_9_4_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8070293210703572</v>
+        <v>0.3514776630744696</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8559894834716237</v>
+        <v>-1.82502107851598</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9161649920650121</v>
+        <v>-0.5981059047655606</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8892882932550176</v>
+        <v>-1.156703134050209</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2135616838932037</v>
+        <v>0.7177231907844543</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2610167562961578</v>
+        <v>2.657891511917114</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1347782611846924</v>
+        <v>1.842925906181335</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2016106098890305</v>
+        <v>2.274377346038818</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_16</t>
+          <t>model_9_4_2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8101980952337366</v>
+        <v>0.3646554409915991</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8529811350509537</v>
+        <v>-0.9894190467782642</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9087982469324123</v>
+        <v>-0.3859966234800596</v>
       </c>
       <c r="E18" t="n">
-        <v>0.884642757330375</v>
+        <v>-0.6528798979742243</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2100547850131989</v>
+        <v>0.7031391859054565</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2664693593978882</v>
+        <v>1.871724009513855</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1466214954853058</v>
+        <v>1.598322749137878</v>
       </c>
       <c r="I18" t="n">
-        <v>0.210070326924324</v>
+        <v>1.743064403533936</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_17</t>
+          <t>model_9_4_10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8129184642680771</v>
+        <v>0.3654195420909396</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8499167702291501</v>
+        <v>-1.919168839476508</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9004925447846414</v>
+        <v>-0.2954449990472214</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8795777160965281</v>
+        <v>-1.045422115872919</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2070441246032715</v>
+        <v>0.7022935748100281</v>
       </c>
       <c r="G19" t="n">
-        <v>0.272023469209671</v>
+        <v>2.746469497680664</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1599742472171783</v>
+        <v>1.49389922618866</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2192939668893814</v>
+        <v>2.157024621963501</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_18</t>
+          <t>model_9_4_9</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.815442878232972</v>
+        <v>0.3727127498771917</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8467127372383371</v>
+        <v>-1.875876514206552</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8923781196960551</v>
+        <v>-0.2860823499271949</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8745180025962486</v>
+        <v>-1.020156635141773</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2042503505945206</v>
+        <v>0.6942221522331238</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2778307199478149</v>
+        <v>2.705738306045532</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1730194687843323</v>
+        <v>1.483102202415466</v>
       </c>
       <c r="I20" t="n">
-        <v>0.228507936000824</v>
+        <v>2.130380392074585</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_19</t>
+          <t>model_9_4_1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8176344834575846</v>
+        <v>0.3761346146798321</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8434760786179153</v>
+        <v>-1.100135983982577</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8836009068179757</v>
+        <v>-0.004470559487531833</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8691665692272943</v>
+        <v>-0.5088407156970844</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2018249034881592</v>
+        <v>0.6904352307319641</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2836971282958984</v>
+        <v>1.97589111328125</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1871302723884583</v>
+        <v>1.158349275588989</v>
       </c>
       <c r="I21" t="n">
-        <v>0.238253116607666</v>
+        <v>1.591166138648987</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_20</t>
+          <t>model_9_4_8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8197075233454486</v>
+        <v>0.3807274360988174</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8401635757037831</v>
+        <v>-1.823351179332678</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8755138773192291</v>
+        <v>-0.2754137738593732</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8640611120082641</v>
+        <v>-0.9898585463828951</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1995306313037872</v>
+        <v>0.6853522658348083</v>
       </c>
       <c r="G22" t="n">
-        <v>0.289700984954834</v>
+        <v>2.656320333480835</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2001314759254456</v>
+        <v>1.470799326896667</v>
       </c>
       <c r="I22" t="n">
-        <v>0.247550368309021</v>
+        <v>2.098428964614868</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_21</t>
+          <t>model_9_4_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8214971989631361</v>
+        <v>0.3845605440001083</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8365724924566948</v>
+        <v>-1.044387467141385</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8670226458477736</v>
+        <v>0.06467207257053653</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8586411569402119</v>
+        <v>-0.4469285963205309</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1975500136613846</v>
+        <v>0.6811100840568542</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2962097525596619</v>
+        <v>1.92344069480896</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2137824892997742</v>
+        <v>1.078614354133606</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2574203014373779</v>
+        <v>1.525876045227051</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_22</t>
+          <t>model_9_4_7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8229762034628536</v>
+        <v>0.4130598243683032</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8330304880565911</v>
+        <v>-1.629184744699681</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8579717112680552</v>
+        <v>-0.2243203398982363</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8530145216150903</v>
+        <v>-0.8718558751648666</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1959131807088852</v>
+        <v>0.6495698094367981</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3026295900344849</v>
+        <v>2.473641157150269</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2283333390951157</v>
+        <v>1.41187858581543</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2676666378974915</v>
+        <v>1.973988056182861</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_23</t>
+          <t>model_9_4_6</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.823742577523861</v>
+        <v>0.423366998467543</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8292737147810871</v>
+        <v>-1.572081434631954</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8465947100385149</v>
+        <v>-0.1651995271361948</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8463085936068321</v>
+        <v>-0.8144596324301672</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1950650215148926</v>
+        <v>0.6381627917289734</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3094386756420135</v>
+        <v>2.419915914535522</v>
       </c>
       <c r="H25" t="n">
-        <v>0.246623694896698</v>
+        <v>1.343700885772705</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2798784375190735</v>
+        <v>1.913460254669189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_4_24</t>
+          <t>model_9_4_5</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8247851413555281</v>
+        <v>0.4236467407323959</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8254763137608178</v>
+        <v>-1.568213221280754</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8374044737493155</v>
+        <v>-0.1661300269616122</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8404893347796709</v>
+        <v>-0.813112130595113</v>
       </c>
       <c r="F26" t="n">
-        <v>0.193911224603653</v>
+        <v>0.63785320520401</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3163214027881622</v>
+        <v>2.416276454925537</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2613984942436218</v>
+        <v>1.344774007797241</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2904755771160126</v>
+        <v>1.912039160728455</v>
       </c>
     </row>
   </sheetData>
